--- a/amplify/data/develop/local/editor_sticker_local.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>c7418b96-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ea4e-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -570,12 +570,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/eid_202204_01.png</t>
+          <t>sticker/download/eid_202204_01.png</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/eid_202204_01.png</t>
+          <t>sticker/previews/eid_202204_01.png</t>
         </is>
       </c>
       <c r="O2" t="b">
@@ -583,7 +583,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>b6f0f070-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>c7418d58-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9eb16-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L3" t="n">
@@ -642,12 +642,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/eid_202204_02.png</t>
+          <t>sticker/download/eid_202204_02.png</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/eid_202204_02.png</t>
+          <t>sticker/previews/eid_202204_02.png</t>
         </is>
       </c>
       <c r="O3" t="b">
@@ -655,7 +655,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>b6f0f070-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>c7418dda-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9eb52-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -714,12 +714,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_04A.png</t>
+          <t>sticker/download/subscribe_202204_04A.png</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_04A.png</t>
+          <t>sticker/previews/subscribe_202204_04A.png</t>
         </is>
       </c>
       <c r="O4" t="b">
@@ -727,7 +727,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -778,7 +778,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>c7418e3e-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9eb7a-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -786,12 +786,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_04B.png</t>
+          <t>sticker/download/subscribe_202204_04B.png</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_04B.png</t>
+          <t>sticker/previews/subscribe_202204_04B.png</t>
         </is>
       </c>
       <c r="O5" t="b">
@@ -799,7 +799,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>c7418e98-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9eba2-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -858,12 +858,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_05A.png</t>
+          <t>sticker/download/subscribe_202204_05A.png</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_05A.png</t>
+          <t>sticker/previews/subscribe_202204_05A.png</t>
         </is>
       </c>
       <c r="O6" t="b">
@@ -871,7 +871,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>c7418ef2-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ebd4-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -930,12 +930,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_05B.png</t>
+          <t>sticker/download/subscribe_202204_05B.png</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_05B.png</t>
+          <t>sticker/previews/subscribe_202204_05B.png</t>
         </is>
       </c>
       <c r="O7" t="b">
@@ -943,7 +943,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>c7418f4c-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ebfc-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1002,12 +1002,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_06A.png</t>
+          <t>sticker/download/subscribe_202204_06A.png</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_06A.png</t>
+          <t>sticker/previews/subscribe_202204_06A.png</t>
         </is>
       </c>
       <c r="O8" t="b">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>c7418fa6-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ec1a-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_06B.png</t>
+          <t>sticker/download/subscribe_202204_06B.png</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_06B.png</t>
+          <t>sticker/previews/subscribe_202204_06B.png</t>
         </is>
       </c>
       <c r="O9" t="b">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>c7419000-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ec60-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_07A.gif</t>
+          <t>sticker/download/subscribe_202204_07A.gif</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_07A.gif</t>
+          <t>sticker/previews/subscribe_202204_07A.gif</t>
         </is>
       </c>
       <c r="O10" t="b">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>c741905a-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ec88-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_07B.png</t>
+          <t>sticker/download/subscribe_202204_07B.png</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_07B.png</t>
+          <t>sticker/previews/subscribe_202204_07B.png</t>
         </is>
       </c>
       <c r="O11" t="b">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>c74190b4-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ecb0-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_08A.png</t>
+          <t>sticker/download/subscribe_202204_08A.png</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_08A.png</t>
+          <t>sticker/previews/subscribe_202204_08A.png</t>
         </is>
       </c>
       <c r="O12" t="b">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>c741910e-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ecce-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_08B.png</t>
+          <t>sticker/download/subscribe_202204_08B.png</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_08B.png</t>
+          <t>sticker/previews/subscribe_202204_08B.png</t>
         </is>
       </c>
       <c r="O13" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>c7419168-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ecf6-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_09A.png</t>
+          <t>sticker/download/subscribe_202204_09A.png</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_09A.png</t>
+          <t>sticker/previews/subscribe_202204_09A.png</t>
         </is>
       </c>
       <c r="O14" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>c74191c2-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ed1e-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_09B.png</t>
+          <t>sticker/download/subscribe_202204_09B.png</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_09B.png</t>
+          <t>sticker/previews/subscribe_202204_09B.png</t>
         </is>
       </c>
       <c r="O15" t="b">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>c741921c-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ed46-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_10A.png</t>
+          <t>sticker/download/subscribe_202204_10A.png</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_10A.png</t>
+          <t>sticker/previews/subscribe_202204_10A.png</t>
         </is>
       </c>
       <c r="O16" t="b">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>c74192bc-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ed6e-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1650,12 +1650,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/subscribe_202204_10B.png</t>
+          <t>sticker/download/subscribe_202204_10B.png</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/subscribe_202204_10B.png</t>
+          <t>sticker/previews/subscribe_202204_10B.png</t>
         </is>
       </c>
       <c r="O17" t="b">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>b6f0f21e-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c628ee-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>c7419316-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ed96-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/brasilcarnival_202204_SP.gif</t>
+          <t>sticker/download/brasilcarnival_202204_SP.gif</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/brasilcarnival_202204_SP.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_SP.gif</t>
         </is>
       </c>
       <c r="O18" t="b">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>b6f0ee36-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>c7419370-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9edbe-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/brasilcarnival_202204_Salvador.gif</t>
+          <t>sticker/download/brasilcarnival_202204_Salvador.gif</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/brasilcarnival_202204_Salvador.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_Salvador.gif</t>
         </is>
       </c>
       <c r="O19" t="b">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>b6f0ee36-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>c74193ca-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ede6-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1866,12 +1866,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/brasilcarnival_202204_Recife.gif</t>
+          <t>sticker/download/brasilcarnival_202204_Recife.gif</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/brasilcarnival_202204_Recife.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_Recife.gif</t>
         </is>
       </c>
       <c r="O20" t="b">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>b6f0ee36-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>c7419424-cc42-11ec-9ec8-acde48001122</t>
+          <t>69c9ee04-cc5b-11ec-b55c-acde48001122</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1938,12 +1938,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/download/brasilcarnival_202204_Rio.gif</t>
+          <t>sticker/download/brasilcarnival_202204_Rio.gif</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>https://res.dev.editor.vidma.com/public/sticker/previews/brasilcarnival_202204_Rio.gif</t>
+          <t>sticker/previews/brasilcarnival_202204_Rio.gif</t>
         </is>
       </c>
       <c r="O21" t="b">
@@ -1951,7 +1951,3463 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>b6f0ee36-cbc4-11ec-86fa-acde48001122</t>
+          <t>31c626b4-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>eid_202204_03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>eid_202204_03.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_03.png</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_03.png</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>f35fbe0c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>21</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_03.png</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_03.png</t>
+        </is>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>eid_202204_04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>eid_202204_04.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_04.png</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_04.png</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>f35fbf4c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>22</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_04.png</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_04.png</t>
+        </is>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>eid_202204_05</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>eid_202204_05.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_05.png</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_05.png</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>f35fbf92-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>23</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_05.png</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_05.png</t>
+        </is>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>eid_202204_06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>eid_202204_06.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_06.png</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_06.png</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>f35fbfba-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>24</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_06.png</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_06.png</t>
+        </is>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>eid_202204_07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>eid_202204_07.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_07.png</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_07.png</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>f35fbfec-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>25</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_07.png</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_07.png</t>
+        </is>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>eid_202204_08</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>eid_202204_08.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_08.png</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_08.png</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>f35fc014-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>26</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_08.png</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_08.png</t>
+        </is>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>eid_202204_09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>eid_202204_09.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_09.png</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_09.png</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>f35fc03c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>27</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_09.png</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_09.png</t>
+        </is>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>eid_202204_10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>eid_202204_10.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>eid_202204</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/eid_202204/eid_202204_10.png</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/eid_202204/eid_202204_10.png</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>f35fc064-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>28</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>sticker/download/eid_202204_10.png</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>sticker/previews/eid_202204_10.png</t>
+        </is>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>31c6283a-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ily_202204_01A</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ily_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f35fc08c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>29</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ily_202204_01B</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ily_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f35fc0b4-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>30</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ily_202204_02A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ily_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>f35fc0dc-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>31</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ily_202204_02B</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ily_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>f35fc104-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>32</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ily_202204_03A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ily_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f35fc12c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>33</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ily_202204_03B</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ily_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f35fc154-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>34</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ily_202204_04A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ily_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f35fc17c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>35</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ily_202204_04B</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ily_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>f35fc1a4-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>36</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ily_202204_05A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ily_202204_05A.png</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_05A.png</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_05A.png</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>f35fc1cc-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>37</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_05A.png</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_05A.png</t>
+        </is>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ily_202204_05B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ily_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>f35fc1f4-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>38</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ily_202204_06A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ily_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>f35fc21c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>39</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ily_202204_06B</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ily_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f35fc244-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>40</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ily_202204_07A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ily_202204_07A.png</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>13</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_07A.png</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_07A.png</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>f35fc26c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>41</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_07A.png</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_07A.png</t>
+        </is>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ily_202204_07B</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ily_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>f35fc294-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>42</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ily_202204_08A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ily_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>f35fc2bc-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>43</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ily_202204_08B</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ily_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>16</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>f35fc2e4-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>44</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ily_202204_09A</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ily_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>17</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>f35fc30c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>45</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ily_202204_09B</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ily_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>18</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>f35fc334-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>46</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ily_202204_10A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ily_202204_10A.gif</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>19</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_10A.gif</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_10A.gif</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>f35fc35c-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>47</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_10A.gif</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_10A.gif</t>
+        </is>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ily_202204_10B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ily_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ily</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>ily_202204</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/ily_202204/ily_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/ily_202204/ily_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>f35fc384-cc72-11ec-a627-acde48001122</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>48</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>sticker/download/ily_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>sticker/previews/ily_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>31c62876-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>like_202204_01A</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>like_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>9013b922-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>49</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_01A.gif</t>
+        </is>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>like_202204_01B</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>like_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>9013ba6c-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>50</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_01B.png</t>
+        </is>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>like_202204_02A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>like_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>9013baa8-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>51</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_02A.png</t>
+        </is>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>like_202204_02B</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>like_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>9013bada-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>52</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_02B.png</t>
+        </is>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>like_202204_03A</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>like_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>9013bb02-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>53</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_03A.png</t>
+        </is>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>like_202204_03B</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>like_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9013bb2a-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>54</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_03B.png</t>
+        </is>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>like_202204_04A</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>like_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>9013bb52-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>55</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_04A.gif</t>
+        </is>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>like_202204_04B</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>like_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>9013bb7a-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>56</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_04B.png</t>
+        </is>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>like_202204_05A</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>like_202204_05A.gif</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_05A.gif</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_05A.gif</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>9013bb98-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>57</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_05A.gif</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_05A.gif</t>
+        </is>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>like_202204_05B</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>like_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>9013bbc0-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>58</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_05B.png</t>
+        </is>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>like_202204_06A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>like_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>11</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>9013bbe8-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>59</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_06A.png</t>
+        </is>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>like_202204_06B</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>like_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>12</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>9013bc10-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>60</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_06B.png</t>
+        </is>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>like_202204_07A</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>like_202204_07A.gif</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>13</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_07A.gif</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_07A.gif</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>9013bc38-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>61</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_07A.gif</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_07A.gif</t>
+        </is>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>like_202204_07B</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>like_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>9013bca6-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>62</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_07B.png</t>
+        </is>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>like_202204_08A</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>like_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>15</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>9013bcce-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>63</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_08A.png</t>
+        </is>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>like_202204_08B</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>like_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>16</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9013bd00-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>64</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_08B.png</t>
+        </is>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>like_202204_09A</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>like_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>17</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>9013bd28-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>65</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_09A.png</t>
+        </is>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>like_202204_09B</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>like_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>18</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>9013bd50-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>66</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_09B.png</t>
+        </is>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>like_202204_10A</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>like_202204_10A.png</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>19</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_10A.png</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_10A.png</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>9013bd78-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>67</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_10A.png</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_10A.png</t>
+        </is>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>like_202204_10B</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>like_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>202204</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>like_202204</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202204/like_202204/like_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202204/like_202204/like_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>9013bda0-cc75-11ec-be2e-acde48001122</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>68</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>sticker/download/like_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>sticker/previews/like_202204_10B.png</t>
+        </is>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>31c6289e-cc59-11ec-be2d-acde48001122</t>
         </is>
       </c>
     </row>

--- a/amplify/data/develop/local/editor_sticker_local.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O259"/>
+  <dimension ref="A1:O339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17796,6 +17796,5366 @@
         <v>1</v>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>frames_202206_01</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>frames_202206_01.png</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_01.png</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_01.png</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>259</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>620e502c-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_01.png</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_01.png</t>
+        </is>
+      </c>
+      <c r="O260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>frames_202206_02</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>frames_202206_02.png</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_02.png</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_02.png</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>260</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>620e514e-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_02.png</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_02.png</t>
+        </is>
+      </c>
+      <c r="O261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>frames_202206_03</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>frames_202206_03.png</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>3</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_03.png</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_03.png</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>261</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>620e5216-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_03.png</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_03.png</t>
+        </is>
+      </c>
+      <c r="O262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>frames_202206_04</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>frames_202206_04.png</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>4</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_04.png</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_04.png</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>262</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>620e5252-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_04.png</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_04.png</t>
+        </is>
+      </c>
+      <c r="O263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>frames_202206_05</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>frames_202206_05.png</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G264" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_05.png</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_05.png</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>263</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>620e5284-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_05.png</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_05.png</t>
+        </is>
+      </c>
+      <c r="O264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>frames_202206_06</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>frames_202206_06.png</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_06.png</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_06.png</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>264</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>620e52b6-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_06.png</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_06.png</t>
+        </is>
+      </c>
+      <c r="O265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>frames_202206_07</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>frames_202206_07.png</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>7</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_07.png</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_07.png</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>265</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>620e52e8-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_07.png</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_07.png</t>
+        </is>
+      </c>
+      <c r="O266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>frames_202206_08</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>frames_202206_08.png</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_08.png</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_08.png</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>266</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>620e531a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_08.png</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_08.png</t>
+        </is>
+      </c>
+      <c r="O267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>frames_202206_09</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>frames_202206_09.png</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_09.png</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_09.png</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>267</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>620e534c-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_09.png</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_09.png</t>
+        </is>
+      </c>
+      <c r="O268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>frames_202206_10</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>frames_202206_10.png</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>10</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_10.png</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_10.png</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>268</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>620e537e-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_10.png</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_10.png</t>
+        </is>
+      </c>
+      <c r="O269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>frames_202206_11</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>frames_202206_11.png</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>11</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_11.png</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_11.png</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>269</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>620e53b0-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_11.png</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_11.png</t>
+        </is>
+      </c>
+      <c r="O270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>frames_202206_12</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>frames_202206_12.png</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>12</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_12.png</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_12.png</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>270</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>620e53e2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_12.png</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_12.png</t>
+        </is>
+      </c>
+      <c r="O271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>sports_202206_01</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>sports_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>271</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>620e5414-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="O272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>sports_202206_02</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>sports_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>272</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>620e5446-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="O273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>sports_202206_03</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>sports_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>273</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>620e5478-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="O274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>sports_202206_04</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>sports_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>274</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>620e54aa-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="O275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>sports_202206_05</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>sports_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G276" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>275</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>620e54d2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="O276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>sports_202206_06</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>sports_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>6</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>276</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>620e5504-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="O277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>sports_202206_07</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>sports_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>277</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>620e5536-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="O278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>sports_202206_08</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>sports_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>8</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>278</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>620e5568-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="O279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>sports_202206_09</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>sports_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>279</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>620e559a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="O280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>sports_202206_10</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>sports_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>10</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>280</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>620e55cc-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="O281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>sports_202206_11</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>sports_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>11</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>281</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>620e55f4-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="O282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>sports_202206_12</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>sports_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>12</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>sports_202206</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/sports_202206/sports_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/sports_202206/sports_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>282</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>620e5626-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>sticker/download/sports_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>sticker/previews/sports_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="O283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_01</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_01.png</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_01.png</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_01.png</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>283</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>620e5658-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_01.png</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_01.png</t>
+        </is>
+      </c>
+      <c r="O284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_02</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_02.png</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_02.png</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_02.png</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>284</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>620e568a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_02.png</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_02.png</t>
+        </is>
+      </c>
+      <c r="O285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_03</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_03.png</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_03.png</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_03.png</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>285</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>620e56bc-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_03.png</t>
+        </is>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_03.png</t>
+        </is>
+      </c>
+      <c r="O286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_04</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_04.png</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>4</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_04.png</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_04.png</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>286</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>620e56ee-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_04.png</t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_04.png</t>
+        </is>
+      </c>
+      <c r="O287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_05</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_05.png</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_05.png</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_05.png</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>287</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>620e5720-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_05.png</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_05.png</t>
+        </is>
+      </c>
+      <c r="O288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_06</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_06.png</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_06.png</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_06.png</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>288</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>620e5748-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_06.png</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_06.png</t>
+        </is>
+      </c>
+      <c r="O289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_07</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_07.png</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>7</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_07.png</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_07.png</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>289</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>620e577a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_07.png</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_07.png</t>
+        </is>
+      </c>
+      <c r="O290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_08</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_08.png</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>8</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_08.png</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_08.png</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>290</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>620e57ac-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_08.png</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_08.png</t>
+        </is>
+      </c>
+      <c r="O291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_09</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_09.png</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_09.png</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_09.png</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>291</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>620e57de-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_09.png</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_09.png</t>
+        </is>
+      </c>
+      <c r="O292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_10</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_10.png</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>10</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_10.png</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_10.png</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>292</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>620e5810-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_10.png</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_10.png</t>
+        </is>
+      </c>
+      <c r="O293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_11</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_11.png</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>11</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_11.png</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_11.png</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>293</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>620e5842-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_11.png</t>
+        </is>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_11.png</t>
+        </is>
+      </c>
+      <c r="O294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_12</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_12.png</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>12</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_12.png</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_12.png</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>294</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>620e5874-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_12.png</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_12.png</t>
+        </is>
+      </c>
+      <c r="O295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_13</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_13.png</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>13</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_13.png</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_13.png</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>295</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>620e58b0-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_13.png</t>
+        </is>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_13.png</t>
+        </is>
+      </c>
+      <c r="O296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_14</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_14.png</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>14</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_14.png</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_14.png</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>296</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>620e58e2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_14.png</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_14.png</t>
+        </is>
+      </c>
+      <c r="O297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_15</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_15.png</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>15</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_15.png</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_15.png</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>297</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>620e590a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_15.png</t>
+        </is>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_15.png</t>
+        </is>
+      </c>
+      <c r="O298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_16</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_16.png</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_16.png</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_16.png</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>298</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>620e593c-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_16.png</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_16.png</t>
+        </is>
+      </c>
+      <c r="O299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_17</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_17.png</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>17</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_17.png</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_17.png</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>299</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>620e596e-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_17.png</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_17.png</t>
+        </is>
+      </c>
+      <c r="O300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_18</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_18.png</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>18</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_18.png</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_18.png</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>300</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>620e59a0-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_18.png</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_18.png</t>
+        </is>
+      </c>
+      <c r="O301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_19</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_19.png</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>19</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_19.png</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_19.png</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>301</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>620e59d2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_19.png</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_19.png</t>
+        </is>
+      </c>
+      <c r="O302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_20</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>vaporwave_202206_20.png</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>20</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>vaporwave</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>vaporwave_202206</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/vaporwave_202206/vaporwave_202206_20.png</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/vaporwave_202206/vaporwave_202206_20.png</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>302</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>620e5a04-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>sticker/download/vaporwave_202206_20.png</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>sticker/previews/vaporwave_202206_20.png</t>
+        </is>
+      </c>
+      <c r="O303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_01</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_01.png</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_01.png</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_01.png</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>303</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>620e5a36-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_01.png</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_01.png</t>
+        </is>
+      </c>
+      <c r="O304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_02</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_02.png</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_02.png</t>
+        </is>
+      </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_02.png</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>304</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>620e5a5e-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_02.png</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_02.png</t>
+        </is>
+      </c>
+      <c r="O305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_03</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_03.png</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>3</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_03.png</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_03.png</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>305</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>620e5a90-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_03.png</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_03.png</t>
+        </is>
+      </c>
+      <c r="O306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_04</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_04.png</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>4</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_04.png</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_04.png</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>306</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>620e5ac2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_04.png</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_04.png</t>
+        </is>
+      </c>
+      <c r="O307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_05</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_05.png</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>5</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_05.png</t>
+        </is>
+      </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_05.png</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>307</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>620e5af4-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_05.png</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_05.png</t>
+        </is>
+      </c>
+      <c r="O308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_06</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_06.png</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>6</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_06.png</t>
+        </is>
+      </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_06.png</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>308</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>620e5b26-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_06.png</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_06.png</t>
+        </is>
+      </c>
+      <c r="O309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_07</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_07.png</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>7</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_07.png</t>
+        </is>
+      </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_07.png</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>309</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>620e5b58-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_07.png</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_07.png</t>
+        </is>
+      </c>
+      <c r="O310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_08</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_08.png</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>8</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_08.png</t>
+        </is>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_08.png</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>310</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>620e5b8a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_08.png</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_08.png</t>
+        </is>
+      </c>
+      <c r="O311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_09</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_09.png</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>9</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_09.png</t>
+        </is>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_09.png</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>311</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>620e5bbc-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_09.png</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_09.png</t>
+        </is>
+      </c>
+      <c r="O312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_10</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_10.png</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>10</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_10.png</t>
+        </is>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_10.png</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>312</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>620e5bee-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_10.png</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_10.png</t>
+        </is>
+      </c>
+      <c r="O313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_11</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_11.png</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>11</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_11.png</t>
+        </is>
+      </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_11.png</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>313</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>620e5c20-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_11.png</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_11.png</t>
+        </is>
+      </c>
+      <c r="O314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_12</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>backtoschool_202206_12.png</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>12</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>backtoschool</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>backtoschool_202206</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/backtoschool_202206/backtoschool_202206_12.png</t>
+        </is>
+      </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/backtoschool_202206/backtoschool_202206_12.png</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>314</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>620e5c52-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>sticker/download/backtoschool_202206_12.png</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>sticker/previews/backtoschool_202206_12.png</t>
+        </is>
+      </c>
+      <c r="O315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>girlish_202206_01</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>girlish_202206_01.png</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_01.png</t>
+        </is>
+      </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_01.png</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>315</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>620e5c84-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_01.png</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_01.png</t>
+        </is>
+      </c>
+      <c r="O316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>girlish_202206_02</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>girlish_202206_02.png</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_02.png</t>
+        </is>
+      </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_02.png</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>316</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>620e5cb6-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_02.png</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_02.png</t>
+        </is>
+      </c>
+      <c r="O317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>girlish_202206_03</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>girlish_202206_03.png</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>3</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_03.png</t>
+        </is>
+      </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_03.png</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>317</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>620e5ce8-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_03.png</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_03.png</t>
+        </is>
+      </c>
+      <c r="O318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>girlish_202206_04</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>girlish_202206_04.png</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>4</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_04.png</t>
+        </is>
+      </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_04.png</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>318</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>620e5d1a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_04.png</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_04.png</t>
+        </is>
+      </c>
+      <c r="O319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>girlish_202206_05</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>girlish_202206_05.png</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>5</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_05.png</t>
+        </is>
+      </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_05.png</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>319</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>620e5d4c-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_05.png</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_05.png</t>
+        </is>
+      </c>
+      <c r="O320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>girlish_202206_06</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>girlish_202206_06.png</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>6</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_06.png</t>
+        </is>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_06.png</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>320</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>620e5d7e-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_06.png</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_06.png</t>
+        </is>
+      </c>
+      <c r="O321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>girlish_202206_07</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>girlish_202206_07.png</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>7</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_07.png</t>
+        </is>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_07.png</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>321</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>620e5db0-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_07.png</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_07.png</t>
+        </is>
+      </c>
+      <c r="O322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>girlish_202206_08</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>girlish_202206_08.png</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>8</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_08.png</t>
+        </is>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_08.png</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>322</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>620e5de2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_08.png</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_08.png</t>
+        </is>
+      </c>
+      <c r="O323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>girlish_202206_09</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>girlish_202206_09.png</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>9</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_09.png</t>
+        </is>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_09.png</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>323</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>620e5e0a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_09.png</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_09.png</t>
+        </is>
+      </c>
+      <c r="O324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>girlish_202206_10</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>girlish_202206_10.png</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>10</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_10.png</t>
+        </is>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_10.png</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>324</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>620e5e3c-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_10.png</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_10.png</t>
+        </is>
+      </c>
+      <c r="O325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>girlish_202206_11</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>girlish_202206_11.png</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>11</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_11.png</t>
+        </is>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_11.png</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>325</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>620e5e6e-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_11.png</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_11.png</t>
+        </is>
+      </c>
+      <c r="O326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>girlish_202206_12</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>girlish_202206_12.png</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>12</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>girlish</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>girlish_202206</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/girlish_202206/girlish_202206_12.png</t>
+        </is>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/girlish_202206/girlish_202206_12.png</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>326</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>620e5ea0-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>sticker/download/girlish_202206_12.png</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>sticker/previews/girlish_202206_12.png</t>
+        </is>
+      </c>
+      <c r="O327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>summer_202206_01</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>summer_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>327</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>620e5ed2-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="O328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>summer_202206_02</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>summer_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>2</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>328</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>620e5f04-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="O329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>summer_202206_03</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>summer_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>3</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>329</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>620e5f36-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="O330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>summer_202206_04</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>summer_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>4</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>330</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>620e5f68-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="O331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>summer_202206_05</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>summer_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>5</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>331</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>620e5f9a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="O332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>summer_202206_06</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>summer_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>6</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>332</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>620e5fcc-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="O333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>summer_202206_07</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>summer_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>7</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>333</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>620e5ffe-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="O334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>summer_202206_08</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>summer_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>8</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>334</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>620e6026-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="O335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>summer_202206_09</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>summer_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>9</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="K336" t="n">
+        <v>335</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>620e6058-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="O336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>summer_202206_10</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>summer_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>10</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="K337" t="n">
+        <v>336</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>620e608a-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="O337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>summer_202206_11</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>summer_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>11</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="K338" t="n">
+        <v>337</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>620e60bc-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="O338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>summer_202206_12</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>summer_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>12</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>summer_202206</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/summer_202206/summer_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/summer_202206/summer_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="K339" t="n">
+        <v>338</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>620e60ee-e8a5-11ec-84da-acde48001122</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>sticker/download/summer_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>sticker/previews/summer_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="O339" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/amplify/data/develop/local/editor_sticker_local.xlsx
+++ b/amplify/data/develop/local/editor_sticker_local.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O339"/>
+  <dimension ref="A1:O476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17004,7 +17004,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D249" t="n">
         <v>1</v>
@@ -17138,7 +17138,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -17540,7 +17540,7 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
         <v>1</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D257" t="n">
         <v>1</v>
@@ -17674,7 +17674,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -18280,7 +18280,7 @@
         <v>8</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -23153,6 +23153,9185 @@
         </is>
       </c>
       <c r="O339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>frames_202206_13</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>frames_202206_13.png</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>8</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>frames_202206</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/frames_202206/frames_202206_13.png</t>
+        </is>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/frames_202206/frames_202206_13.png</t>
+        </is>
+      </c>
+      <c r="K340" t="n">
+        <v>339</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>0912eea8-f131-11ec-85d6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>sticker/download/frames_202206_13.png</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>sticker/previews/frames_202206_13.png</t>
+        </is>
+      </c>
+      <c r="O340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>baking_202207_01</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>baking_202207_01.png</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_01.png</t>
+        </is>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_01.png</t>
+        </is>
+      </c>
+      <c r="K341" t="n">
+        <v>340</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>e1fabd9c-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_01.png</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_01.png</t>
+        </is>
+      </c>
+      <c r="O341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>baking_202207_02</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>baking_202207_02.png</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>2</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_02.png</t>
+        </is>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_02.png</t>
+        </is>
+      </c>
+      <c r="K342" t="n">
+        <v>341</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>e1fabf0e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_02.png</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_02.png</t>
+        </is>
+      </c>
+      <c r="O342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>baking_202207_03</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>baking_202207_03.png</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>3</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_03.png</t>
+        </is>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_03.png</t>
+        </is>
+      </c>
+      <c r="K343" t="n">
+        <v>342</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>e1fabf5e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_03.png</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_03.png</t>
+        </is>
+      </c>
+      <c r="O343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>baking_202207_04</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>baking_202207_04.png</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>4</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_04.png</t>
+        </is>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_04.png</t>
+        </is>
+      </c>
+      <c r="K344" t="n">
+        <v>343</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>e1fabf9a-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_04.png</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_04.png</t>
+        </is>
+      </c>
+      <c r="O344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>baking_202207_05</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>baking_202207_05.png</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>5</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_05.png</t>
+        </is>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_05.png</t>
+        </is>
+      </c>
+      <c r="K345" t="n">
+        <v>344</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>e1fabfcc-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_05.png</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_05.png</t>
+        </is>
+      </c>
+      <c r="O345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>baking_202207_06</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>baking_202207_06.png</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>6</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_06.png</t>
+        </is>
+      </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_06.png</t>
+        </is>
+      </c>
+      <c r="K346" t="n">
+        <v>345</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>e1fabffe-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_06.png</t>
+        </is>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_06.png</t>
+        </is>
+      </c>
+      <c r="O346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>baking_202207_07</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>baking_202207_07.png</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>7</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_07.png</t>
+        </is>
+      </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_07.png</t>
+        </is>
+      </c>
+      <c r="K347" t="n">
+        <v>346</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>e1fac030-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_07.png</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_07.png</t>
+        </is>
+      </c>
+      <c r="O347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>baking_202207_08</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>baking_202207_08.png</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>8</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_08.png</t>
+        </is>
+      </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_08.png</t>
+        </is>
+      </c>
+      <c r="K348" t="n">
+        <v>347</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>e1fac062-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_08.png</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_08.png</t>
+        </is>
+      </c>
+      <c r="O348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>baking_202207_09</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>baking_202207_09.png</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_09.png</t>
+        </is>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_09.png</t>
+        </is>
+      </c>
+      <c r="K349" t="n">
+        <v>348</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>e1fac094-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_09.png</t>
+        </is>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_09.png</t>
+        </is>
+      </c>
+      <c r="O349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>baking_202207_10</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>baking_202207_10.png</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>10</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_10.png</t>
+        </is>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_10.png</t>
+        </is>
+      </c>
+      <c r="K350" t="n">
+        <v>349</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>e1fac0d0-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_10.png</t>
+        </is>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_10.png</t>
+        </is>
+      </c>
+      <c r="O350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>baking_202207_11</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>baking_202207_11.png</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>11</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_11.png</t>
+        </is>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_11.png</t>
+        </is>
+      </c>
+      <c r="K351" t="n">
+        <v>350</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>e1fac102-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_11.png</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_11.png</t>
+        </is>
+      </c>
+      <c r="O351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>baking_202207_12</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>baking_202207_12.png</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>12</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>baking</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>baking_202207</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/baking_202207/baking_202207_12.png</t>
+        </is>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/baking_202207/baking_202207_12.png</t>
+        </is>
+      </c>
+      <c r="K352" t="n">
+        <v>351</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>e1fac134-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>sticker/download/baking_202207_12.png</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>sticker/previews/baking_202207_12.png</t>
+        </is>
+      </c>
+      <c r="O352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>buzzword_202207_01</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>buzzword_202207_01.png</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_01.png</t>
+        </is>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_01.png</t>
+        </is>
+      </c>
+      <c r="K353" t="n">
+        <v>352</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>e1fac166-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_01.png</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_01.png</t>
+        </is>
+      </c>
+      <c r="O353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>buzzword_202207_02</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>buzzword_202207_02.png</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>2</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_02.png</t>
+        </is>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_02.png</t>
+        </is>
+      </c>
+      <c r="K354" t="n">
+        <v>353</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>e1fac198-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_02.png</t>
+        </is>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_02.png</t>
+        </is>
+      </c>
+      <c r="O354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>buzzword_202207_03</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>buzzword_202207_03.png</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>3</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_03.png</t>
+        </is>
+      </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_03.png</t>
+        </is>
+      </c>
+      <c r="K355" t="n">
+        <v>354</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>e1fac1ca-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_03.png</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_03.png</t>
+        </is>
+      </c>
+      <c r="O355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>buzzword_202207_04</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>buzzword_202207_04.png</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>4</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_04.png</t>
+        </is>
+      </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_04.png</t>
+        </is>
+      </c>
+      <c r="K356" t="n">
+        <v>355</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>e1fac1fc-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_04.png</t>
+        </is>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_04.png</t>
+        </is>
+      </c>
+      <c r="O356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>buzzword_202207_05</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>buzzword_202207_05.png</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>5</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_05.png</t>
+        </is>
+      </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_05.png</t>
+        </is>
+      </c>
+      <c r="K357" t="n">
+        <v>356</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>e1fac22e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_05.png</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_05.png</t>
+        </is>
+      </c>
+      <c r="O357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>buzzword_202207_06</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>buzzword_202207_06.png</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>6</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_06.png</t>
+        </is>
+      </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_06.png</t>
+        </is>
+      </c>
+      <c r="K358" t="n">
+        <v>357</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>e1fac260-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_06.png</t>
+        </is>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_06.png</t>
+        </is>
+      </c>
+      <c r="O358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>buzzword_202207_07</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>buzzword_202207_07.png</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>7</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_07.png</t>
+        </is>
+      </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_07.png</t>
+        </is>
+      </c>
+      <c r="K359" t="n">
+        <v>358</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>e1fac292-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_07.png</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_07.png</t>
+        </is>
+      </c>
+      <c r="O359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>buzzword_202207_08</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>buzzword_202207_08.png</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>8</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_08.png</t>
+        </is>
+      </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_08.png</t>
+        </is>
+      </c>
+      <c r="K360" t="n">
+        <v>359</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>e1fac2c4-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_08.png</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_08.png</t>
+        </is>
+      </c>
+      <c r="O360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>buzzword_202207_09</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>buzzword_202207_09.png</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>9</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_09.png</t>
+        </is>
+      </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_09.png</t>
+        </is>
+      </c>
+      <c r="K361" t="n">
+        <v>360</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>e1fac2f6-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_09.png</t>
+        </is>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_09.png</t>
+        </is>
+      </c>
+      <c r="O361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>buzzword_202207_10</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>buzzword_202207_10.png</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>10</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_10.png</t>
+        </is>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_10.png</t>
+        </is>
+      </c>
+      <c r="K362" t="n">
+        <v>361</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>e1fac328-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_10.png</t>
+        </is>
+      </c>
+      <c r="N362" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_10.png</t>
+        </is>
+      </c>
+      <c r="O362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>buzzword_202207_11</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>buzzword_202207_11.png</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>11</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_11.png</t>
+        </is>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_11.png</t>
+        </is>
+      </c>
+      <c r="K363" t="n">
+        <v>362</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>e1fac35a-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_11.png</t>
+        </is>
+      </c>
+      <c r="N363" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_11.png</t>
+        </is>
+      </c>
+      <c r="O363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>buzzword_202207_12</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>buzzword_202207_12.png</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>12</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G364" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_12.png</t>
+        </is>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_12.png</t>
+        </is>
+      </c>
+      <c r="K364" t="n">
+        <v>363</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>e1fac38c-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_12.png</t>
+        </is>
+      </c>
+      <c r="N364" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_12.png</t>
+        </is>
+      </c>
+      <c r="O364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>buzzword_202207_13</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>buzzword_202207_13.png</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>13</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G365" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_13.png</t>
+        </is>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_13.png</t>
+        </is>
+      </c>
+      <c r="K365" t="n">
+        <v>364</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>e1fac3be-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_13.png</t>
+        </is>
+      </c>
+      <c r="N365" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_13.png</t>
+        </is>
+      </c>
+      <c r="O365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>buzzword_202207_14</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>buzzword_202207_14.png</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>14</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G366" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_14.png</t>
+        </is>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_14.png</t>
+        </is>
+      </c>
+      <c r="K366" t="n">
+        <v>365</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>e1fac3f0-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_14.png</t>
+        </is>
+      </c>
+      <c r="N366" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_14.png</t>
+        </is>
+      </c>
+      <c r="O366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>buzzword_202207_15</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>buzzword_202207_15.png</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>15</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G367" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_15.png</t>
+        </is>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_15.png</t>
+        </is>
+      </c>
+      <c r="K367" t="n">
+        <v>366</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>e1fac422-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_15.png</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_15.png</t>
+        </is>
+      </c>
+      <c r="O367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>buzzword_202207_16</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>buzzword_202207_16.png</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>16</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G368" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_16.png</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_16.png</t>
+        </is>
+      </c>
+      <c r="K368" t="n">
+        <v>367</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>e1fac454-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_16.png</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_16.png</t>
+        </is>
+      </c>
+      <c r="O368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>buzzword_202207_17</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>buzzword_202207_17.png</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>17</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G369" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_17.png</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_17.png</t>
+        </is>
+      </c>
+      <c r="K369" t="n">
+        <v>368</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>e1fac486-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_17.png</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_17.png</t>
+        </is>
+      </c>
+      <c r="O369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>buzzword_202207_18</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>buzzword_202207_18.png</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>18</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G370" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_18.png</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_18.png</t>
+        </is>
+      </c>
+      <c r="K370" t="n">
+        <v>369</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>e1fac4b8-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_18.png</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_18.png</t>
+        </is>
+      </c>
+      <c r="O370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>buzzword_202207_19</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>buzzword_202207_19.png</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>19</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G371" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_19.png</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_19.png</t>
+        </is>
+      </c>
+      <c r="K371" t="n">
+        <v>370</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>e1fac4ea-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_19.png</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_19.png</t>
+        </is>
+      </c>
+      <c r="O371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>buzzword_202207_20</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>buzzword_202207_20.png</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>20</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>buzzword</t>
+        </is>
+      </c>
+      <c r="G372" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>buzzword_202207</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/buzzword_202207/buzzword_202207_20.png</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/buzzword_202207/buzzword_202207_20.png</t>
+        </is>
+      </c>
+      <c r="K372" t="n">
+        <v>371</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>e1fac51c-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>sticker/download/buzzword_202207_20.png</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>sticker/previews/buzzword_202207_20.png</t>
+        </is>
+      </c>
+      <c r="O372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>cartoon_202207_01</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>cartoon_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G373" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="K373" t="n">
+        <v>372</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>e1fac54e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="O373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>cartoon_202207_02</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>cartoon_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>2</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="K374" t="n">
+        <v>373</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>e1fac580-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M374" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="N374" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="O374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>cartoon_202207_03</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>cartoon_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>3</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="K375" t="n">
+        <v>374</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>e1fac5b2-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="O375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>cartoon_202207_04</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>cartoon_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="K376" t="n">
+        <v>375</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>e1fac5e4-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="O376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>cartoon_202207_05</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>cartoon_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>5</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G377" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="K377" t="n">
+        <v>376</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>e1fac616-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="O377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>cartoon_202207_06</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>cartoon_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>6</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G378" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="K378" t="n">
+        <v>377</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>e1fac648-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="O378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>cartoon_202207_07</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>cartoon_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>7</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G379" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="K379" t="n">
+        <v>378</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>e1fac67a-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="O379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>cartoon_202207_08</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>cartoon_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>8</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G380" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="K380" t="n">
+        <v>379</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>e1fac6ac-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="O380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>cartoon_202207_09</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>cartoon_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>9</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G381" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="K381" t="n">
+        <v>380</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>e1fac6de-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="O381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>cartoon_202207_10</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>cartoon_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>10</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G382" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="K382" t="n">
+        <v>381</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>e1fac71a-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M382" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="N382" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="O382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>cartoon_202207_11</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>cartoon_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>11</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G383" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="K383" t="n">
+        <v>382</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>e1fac74c-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M383" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="N383" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="O383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>cartoon_202207_12</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>cartoon_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>12</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>cartoon</t>
+        </is>
+      </c>
+      <c r="G384" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>cartoon_202207</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/cartoon_202207/cartoon_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/cartoon_202207/cartoon_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="K384" t="n">
+        <v>383</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>e1fac77e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M384" t="inlineStr">
+        <is>
+          <t>sticker/download/cartoon_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr">
+        <is>
+          <t>sticker/previews/cartoon_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="O384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_01</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G385" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="K385" t="n">
+        <v>384</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>e1fac7b0-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M385" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="N385" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="O385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_02</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>2</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G386" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="K386" t="n">
+        <v>385</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>e1fac7ec-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M386" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="O386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_03</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>3</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G387" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="K387" t="n">
+        <v>386</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>e1fac81e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M387" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="O387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_04</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>4</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G388" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="K388" t="n">
+        <v>387</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>e1fac850-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M388" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="O388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_05</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>5</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G389" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="K389" t="n">
+        <v>388</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>e1fac882-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M389" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="O389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_06</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>6</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="K390" t="n">
+        <v>389</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>e1fac8b4-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M390" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="N390" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="O390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_07</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>7</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="K391" t="n">
+        <v>390</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>e1fac8e6-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M391" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="O391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_08</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>8</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="K392" t="n">
+        <v>391</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>e1fac918-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M392" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="O392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_09</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>9</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="K393" t="n">
+        <v>392</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>e1fac94a-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M393" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="N393" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="O393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_10</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>10</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G394" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="K394" t="n">
+        <v>393</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>e1fac97c-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M394" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="O394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_11</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>11</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G395" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="K395" t="n">
+        <v>394</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>e1fac9ae-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M395" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="O395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_12</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>12</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>emoji_animation</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>emoji_animation_202207</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_animation_202207/emoji_animation_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_animation_202207/emoji_animation_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="K396" t="n">
+        <v>395</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>e1fac9e0-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M396" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_animation_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_animation_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="O396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>independenceday_202207_01</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>independenceday_202207_01.png</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_01.png</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_01.png</t>
+        </is>
+      </c>
+      <c r="K397" t="n">
+        <v>396</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>e1faca12-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M397" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_01.png</t>
+        </is>
+      </c>
+      <c r="N397" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_01.png</t>
+        </is>
+      </c>
+      <c r="O397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>independenceday_202207_02</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>independenceday_202207_02.png</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>2</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_02.png</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_02.png</t>
+        </is>
+      </c>
+      <c r="K398" t="n">
+        <v>397</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>e1faca44-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M398" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_02.png</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_02.png</t>
+        </is>
+      </c>
+      <c r="O398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>independenceday_202207_03</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>independenceday_202207_03.png</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>3</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_03.png</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_03.png</t>
+        </is>
+      </c>
+      <c r="K399" t="n">
+        <v>398</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>e1faca76-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_03.png</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_03.png</t>
+        </is>
+      </c>
+      <c r="O399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>independenceday_202207_04</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>independenceday_202207_04.png</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>4</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G400" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_04.png</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_04.png</t>
+        </is>
+      </c>
+      <c r="K400" t="n">
+        <v>399</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>e1facaa8-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_04.png</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_04.png</t>
+        </is>
+      </c>
+      <c r="O400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>independenceday_202207_05</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>independenceday_202207_05.png</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>5</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G401" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_05.png</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_05.png</t>
+        </is>
+      </c>
+      <c r="K401" t="n">
+        <v>400</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>e1facad0-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_05.png</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_05.png</t>
+        </is>
+      </c>
+      <c r="O401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>independenceday_202207_06</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>independenceday_202207_06.png</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>6</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_06.png</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_06.png</t>
+        </is>
+      </c>
+      <c r="K402" t="n">
+        <v>401</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>e1facb02-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_06.png</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_06.png</t>
+        </is>
+      </c>
+      <c r="O402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>independenceday_202207_07</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>independenceday_202207_07.png</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>7</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_07.png</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_07.png</t>
+        </is>
+      </c>
+      <c r="K403" t="n">
+        <v>402</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>e1facb34-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_07.png</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_07.png</t>
+        </is>
+      </c>
+      <c r="O403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>independenceday_202207_08</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>independenceday_202207_08.png</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>8</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>independenceday</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>independenceday_202207</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/independenceday_202207/independenceday_202207_08.png</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/independenceday_202207/independenceday_202207_08.png</t>
+        </is>
+      </c>
+      <c r="K404" t="n">
+        <v>403</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>e1facb66-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>sticker/download/independenceday_202207_08.png</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>sticker/previews/independenceday_202207_08.png</t>
+        </is>
+      </c>
+      <c r="O404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>shopping_202207_01</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>shopping_202207_01.png</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_01.png</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_01.png</t>
+        </is>
+      </c>
+      <c r="K405" t="n">
+        <v>404</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>e1facb98-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_01.png</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_01.png</t>
+        </is>
+      </c>
+      <c r="O405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>shopping_202207_02</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>shopping_202207_02.png</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>2</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_02.png</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_02.png</t>
+        </is>
+      </c>
+      <c r="K406" t="n">
+        <v>405</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>e1facbca-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_02.png</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_02.png</t>
+        </is>
+      </c>
+      <c r="O406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>shopping_202207_03</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>shopping_202207_03.png</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>3</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_03.png</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_03.png</t>
+        </is>
+      </c>
+      <c r="K407" t="n">
+        <v>406</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>e1facbfc-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_03.png</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_03.png</t>
+        </is>
+      </c>
+      <c r="O407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>shopping_202207_04</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>shopping_202207_04.png</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>4</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_04.png</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_04.png</t>
+        </is>
+      </c>
+      <c r="K408" t="n">
+        <v>407</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>e1facc2e-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_04.png</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_04.png</t>
+        </is>
+      </c>
+      <c r="O408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>shopping_202207_05</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>shopping_202207_05.png</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>5</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_05.png</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_05.png</t>
+        </is>
+      </c>
+      <c r="K409" t="n">
+        <v>408</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>e1facc60-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_05.png</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_05.png</t>
+        </is>
+      </c>
+      <c r="O409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>shopping_202207_06</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>shopping_202207_06.png</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>6</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_06.png</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_06.png</t>
+        </is>
+      </c>
+      <c r="K410" t="n">
+        <v>409</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>e1facc92-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_06.png</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_06.png</t>
+        </is>
+      </c>
+      <c r="O410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>shopping_202207_07</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>shopping_202207_07.png</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>7</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_07.png</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_07.png</t>
+        </is>
+      </c>
+      <c r="K411" t="n">
+        <v>410</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>e1faccc4-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_07.png</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_07.png</t>
+        </is>
+      </c>
+      <c r="O411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>shopping_202207_08</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>shopping_202207_08.png</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>8</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_08.png</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_08.png</t>
+        </is>
+      </c>
+      <c r="K412" t="n">
+        <v>411</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>e1faccf6-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_08.png</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_08.png</t>
+        </is>
+      </c>
+      <c r="O412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>shopping_202207_09</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>shopping_202207_09.png</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>9</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_09.png</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_09.png</t>
+        </is>
+      </c>
+      <c r="K413" t="n">
+        <v>412</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>e1facd32-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_09.png</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_09.png</t>
+        </is>
+      </c>
+      <c r="O413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>shopping_202207_10</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>shopping_202207_10.png</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>10</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_10.png</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_10.png</t>
+        </is>
+      </c>
+      <c r="K414" t="n">
+        <v>413</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>e1facd64-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_10.png</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_10.png</t>
+        </is>
+      </c>
+      <c r="O414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>shopping_202207_11</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>shopping_202207_11.png</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>11</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_11.png</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_11.png</t>
+        </is>
+      </c>
+      <c r="K415" t="n">
+        <v>414</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>e1facd96-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_11.png</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_11.png</t>
+        </is>
+      </c>
+      <c r="O415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>shopping_202207_12</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>shopping_202207_12.png</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>12</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>shopping</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>shopping_202207</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/shopping_202207/shopping_202207_12.png</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/shopping_202207/shopping_202207_12.png</t>
+        </is>
+      </c>
+      <c r="K416" t="n">
+        <v>415</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>e1facdc8-0e62-11ed-908c-acde48001122</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>sticker/download/shopping_202207_12.png</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>sticker/previews/shopping_202207_12.png</t>
+        </is>
+      </c>
+      <c r="O416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>thuglife_202206_01</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>thuglife_202206_01.png</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_01.png</t>
+        </is>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_01.png</t>
+        </is>
+      </c>
+      <c r="K417" t="n">
+        <v>416</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>23481e0c-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_01.png</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_01.png</t>
+        </is>
+      </c>
+      <c r="O417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>thuglife_202206_02</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>thuglife_202206_02.png</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>2</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_02.png</t>
+        </is>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_02.png</t>
+        </is>
+      </c>
+      <c r="K418" t="n">
+        <v>417</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>23481fa6-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_02.png</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_02.png</t>
+        </is>
+      </c>
+      <c r="O418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>thuglife_202206_03</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>thuglife_202206_03.png</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>3</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_03.png</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_03.png</t>
+        </is>
+      </c>
+      <c r="K419" t="n">
+        <v>418</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>23481ff6-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_03.png</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_03.png</t>
+        </is>
+      </c>
+      <c r="O419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>thuglife_202206_04</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>thuglife_202206_04.png</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>4</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_04.png</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_04.png</t>
+        </is>
+      </c>
+      <c r="K420" t="n">
+        <v>419</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>2348203c-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_04.png</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_04.png</t>
+        </is>
+      </c>
+      <c r="O420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>thuglife_202206_05</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>thuglife_202206_05.png</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>5</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_05.png</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_05.png</t>
+        </is>
+      </c>
+      <c r="K421" t="n">
+        <v>420</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>2348206e-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_05.png</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_05.png</t>
+        </is>
+      </c>
+      <c r="O421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>thuglife_202206_06</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>thuglife_202206_06.png</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>6</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I422" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_06.png</t>
+        </is>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_06.png</t>
+        </is>
+      </c>
+      <c r="K422" t="n">
+        <v>421</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>234820aa-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_06.png</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_06.png</t>
+        </is>
+      </c>
+      <c r="O422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>thuglife_202206_07</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>thuglife_202206_07.png</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>7</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_07.png</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_07.png</t>
+        </is>
+      </c>
+      <c r="K423" t="n">
+        <v>422</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>234820dc-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_07.png</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_07.png</t>
+        </is>
+      </c>
+      <c r="O423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>thuglife_202206_08</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>thuglife_202206_08.png</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>8</v>
+      </c>
+      <c r="D424" t="n">
+        <v>1</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_08.png</t>
+        </is>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_08.png</t>
+        </is>
+      </c>
+      <c r="K424" t="n">
+        <v>423</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>23482118-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_08.png</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_08.png</t>
+        </is>
+      </c>
+      <c r="O424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>thuglife_202206_09</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>thuglife_202206_09.png</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>9</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_09.png</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_09.png</t>
+        </is>
+      </c>
+      <c r="K425" t="n">
+        <v>424</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>2348214a-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_09.png</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_09.png</t>
+        </is>
+      </c>
+      <c r="O425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>thuglife_202206_10</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>thuglife_202206_10.png</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>10</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_10.png</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_10.png</t>
+        </is>
+      </c>
+      <c r="K426" t="n">
+        <v>425</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>2348217c-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_10.png</t>
+        </is>
+      </c>
+      <c r="N426" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_10.png</t>
+        </is>
+      </c>
+      <c r="O426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>thuglife_202206_11</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>thuglife_202206_11.png</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>11</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I427" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_11.png</t>
+        </is>
+      </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_11.png</t>
+        </is>
+      </c>
+      <c r="K427" t="n">
+        <v>426</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>234821b8-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_11.png</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_11.png</t>
+        </is>
+      </c>
+      <c r="O427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>thuglife_202206_12</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>thuglife_202206_12.png</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>12</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>png</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>thuglife</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>thuglife_202206</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/thuglife_202206/thuglife_202206_12.png</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/thuglife_202206/thuglife_202206_12.png</t>
+        </is>
+      </c>
+      <c r="K428" t="n">
+        <v>427</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>234821ea-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>sticker/download/thuglife_202206_12.png</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>sticker/previews/thuglife_202206_12.png</t>
+        </is>
+      </c>
+      <c r="O428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>neon_202206_01</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>neon_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="K429" t="n">
+        <v>428</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>23482226-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="N429" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="O429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>neon_202206_02</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>neon_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>2</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="K430" t="n">
+        <v>429</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>23482258-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="O430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>neon_202206_03</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>neon_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>3</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="K431" t="n">
+        <v>430</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>2348228a-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="O431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>neon_202206_04</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>neon_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>4</v>
+      </c>
+      <c r="D432" t="n">
+        <v>1</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="K432" t="n">
+        <v>431</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>234822bc-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="O432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>neon_202206_05</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>neon_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>5</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="K433" t="n">
+        <v>432</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>234822ee-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="O433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>neon_202206_06</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>neon_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>6</v>
+      </c>
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="K434" t="n">
+        <v>433</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>23482320-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="N434" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="O434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>neon_202206_07</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>neon_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>7</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I435" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="K435" t="n">
+        <v>434</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>2348235c-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="N435" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="O435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>neon_202206_08</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>neon_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>8</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G436" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="K436" t="n">
+        <v>435</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>2348238e-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="O436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>neon_202206_09</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>neon_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>9</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G437" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="K437" t="n">
+        <v>436</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>234823c0-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M437" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="N437" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="O437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>neon_202206_10</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>neon_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>10</v>
+      </c>
+      <c r="D438" t="n">
+        <v>1</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="K438" t="n">
+        <v>437</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>234823f2-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M438" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="N438" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="O438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>neon_202206_11</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>neon_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>11</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I439" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="K439" t="n">
+        <v>438</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>23482424-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M439" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="N439" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="O439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>neon_202206_12</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>neon_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>12</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>neon</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>neon_202206</t>
+        </is>
+      </c>
+      <c r="I440" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/neon_202206/neon_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/neon_202206/neon_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="K440" t="n">
+        <v>439</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>23482460-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M440" t="inlineStr">
+        <is>
+          <t>sticker/download/neon_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="N440" t="inlineStr">
+        <is>
+          <t>sticker/previews/neon_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="O440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>birthday_202206_01</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>birthday_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>1</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I441" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="K441" t="n">
+        <v>440</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>23482492-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_01.gif</t>
+        </is>
+      </c>
+      <c r="O441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>birthday_202206_02</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>birthday_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>2</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I442" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="K442" t="n">
+        <v>441</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>234824c4-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_02.gif</t>
+        </is>
+      </c>
+      <c r="O442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>birthday_202206_03</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>birthday_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>3</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="K443" t="n">
+        <v>442</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>234824f6-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="N443" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_03.gif</t>
+        </is>
+      </c>
+      <c r="O443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>birthday_202206_04</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>birthday_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>4</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="J444" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="K444" t="n">
+        <v>443</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>23482528-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="N444" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_04.gif</t>
+        </is>
+      </c>
+      <c r="O444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>birthday_202206_05</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>birthday_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>5</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="K445" t="n">
+        <v>444</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>2348255a-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="N445" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_05.gif</t>
+        </is>
+      </c>
+      <c r="O445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>birthday_202206_06</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>birthday_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>6</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I446" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="J446" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="K446" t="n">
+        <v>445</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>2348258c-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_06.gif</t>
+        </is>
+      </c>
+      <c r="O446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>birthday_202206_07</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>birthday_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>7</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I447" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="J447" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="K447" t="n">
+        <v>446</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>234825be-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_07.gif</t>
+        </is>
+      </c>
+      <c r="O447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>birthday_202206_08</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>birthday_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>8</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="J448" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="K448" t="n">
+        <v>447</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>234825f0-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_08.gif</t>
+        </is>
+      </c>
+      <c r="O448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>birthday_202206_09</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>birthday_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>9</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="J449" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="K449" t="n">
+        <v>448</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>2348262c-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="N449" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_09.gif</t>
+        </is>
+      </c>
+      <c r="O449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>birthday_202206_10</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>birthday_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>10</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="J450" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="K450" t="n">
+        <v>449</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>2348265e-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="N450" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_10.gif</t>
+        </is>
+      </c>
+      <c r="O450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>birthday_202206_11</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>birthday_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>11</v>
+      </c>
+      <c r="D451" t="n">
+        <v>1</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I451" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="K451" t="n">
+        <v>450</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>23482690-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="N451" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_11.gif</t>
+        </is>
+      </c>
+      <c r="O451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>birthday_202206_12</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>birthday_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>12</v>
+      </c>
+      <c r="D452" t="n">
+        <v>1</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>birthday</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>202206</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>birthday_202206</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202206/birthday_202206/birthday_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="J452" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202206/birthday_202206/birthday_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="K452" t="n">
+        <v>451</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>234826c2-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>sticker/download/birthday_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="N452" t="inlineStr">
+        <is>
+          <t>sticker/previews/birthday_202206_12.gif</t>
+        </is>
+      </c>
+      <c r="O452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_01</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
+      <c r="D453" t="n">
+        <v>1</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G453" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="J453" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="K453" t="n">
+        <v>452</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>234826f4-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M453" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="N453" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_01.gif</t>
+        </is>
+      </c>
+      <c r="O453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_02</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>2</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G454" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="K454" t="n">
+        <v>453</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>23482726-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M454" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="N454" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_02.gif</t>
+        </is>
+      </c>
+      <c r="O454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_03</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>3</v>
+      </c>
+      <c r="D455" t="n">
+        <v>1</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G455" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="K455" t="n">
+        <v>454</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>2348278a-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M455" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="N455" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_03.gif</t>
+        </is>
+      </c>
+      <c r="O455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_04</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>4</v>
+      </c>
+      <c r="D456" t="n">
+        <v>1</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G456" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="J456" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="K456" t="n">
+        <v>455</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>234827bc-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M456" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="N456" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_04.gif</t>
+        </is>
+      </c>
+      <c r="O456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_05</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>5</v>
+      </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G457" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="K457" t="n">
+        <v>456</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>234827ee-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M457" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="N457" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_05.gif</t>
+        </is>
+      </c>
+      <c r="O457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_06</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>6</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G458" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="K458" t="n">
+        <v>457</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>2348282a-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M458" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="N458" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_06.gif</t>
+        </is>
+      </c>
+      <c r="O458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_07</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>7</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G459" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="K459" t="n">
+        <v>458</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>23482852-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M459" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="N459" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_07.gif</t>
+        </is>
+      </c>
+      <c r="O459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_08</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>8</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G460" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="K460" t="n">
+        <v>459</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>2348288e-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M460" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="N460" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_08.gif</t>
+        </is>
+      </c>
+      <c r="O460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_09</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>9</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G461" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="K461" t="n">
+        <v>460</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>234828c0-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="N461" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_09.gif</t>
+        </is>
+      </c>
+      <c r="O461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_10</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>10</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G462" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="K462" t="n">
+        <v>461</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>234828f2-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="N462" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_10.gif</t>
+        </is>
+      </c>
+      <c r="O462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_11</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>11</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G463" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="K463" t="n">
+        <v>462</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>23482924-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="N463" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_11.gif</t>
+        </is>
+      </c>
+      <c r="O463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_12</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>12</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>emoji_alt</t>
+        </is>
+      </c>
+      <c r="G464" t="n">
+        <v>202207</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>emoji_alt_202207</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202207/emoji_alt_202207/emoji_alt_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202207/emoji_alt_202207/emoji_alt_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="K464" t="n">
+        <v>463</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>23482956-179b-11ed-9ffe-b29c4ad11d65</t>
+        </is>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>sticker/download/emoji_alt_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="N464" t="inlineStr">
+        <is>
+          <t>sticker/previews/emoji_alt_202207_12.gif</t>
+        </is>
+      </c>
+      <c r="O464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_1</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G465" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_fire_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="J465" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_fire_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="K465" t="n">
+        <v>464</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>5df5a9f6-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_fire_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="N465" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_fire_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="O465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_2</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G466" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_fire_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="J466" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_fire_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="K466" t="n">
+        <v>465</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>5df5ab4a-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_fire_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="N466" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_fire_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="O466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_3</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>3</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G467" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_fire_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="J467" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_fire_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="K467" t="n">
+        <v>466</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>5df5aba4-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_fire_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="N467" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_fire_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="O467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_4</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>effect_fire_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>4</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G468" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_fire_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_fire_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="K468" t="n">
+        <v>467</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>5df5abd6-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_fire_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="N468" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_fire_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="O468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_1</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>5</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G469" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_lights_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_lights_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="K469" t="n">
+        <v>468</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>5df5ac12-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M469" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_lights_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="N469" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_lights_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="O469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_2</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>6</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G470" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_lights_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_lights_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="K470" t="n">
+        <v>469</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>5df5ac4e-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M470" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_lights_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="N470" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_lights_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="O470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_3</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>7</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G471" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_lights_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_lights_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="K471" t="n">
+        <v>470</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>5df5ac80-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M471" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_lights_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="N471" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_lights_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="O471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_4</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>effect_lights_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>8</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G472" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_lights_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_lights_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="K472" t="n">
+        <v>471</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>5df5aca8-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M472" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_lights_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="N472" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_lights_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="O472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_1</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>9</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G473" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_smoke_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_smoke_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="K473" t="n">
+        <v>472</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>5df5acda-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M473" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_smoke_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="N473" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_smoke_202208_1.gif</t>
+        </is>
+      </c>
+      <c r="O473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_2</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>10</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G474" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_smoke_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_smoke_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="K474" t="n">
+        <v>473</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>5df5ad0c-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M474" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_smoke_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="N474" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_smoke_202208_2.gif</t>
+        </is>
+      </c>
+      <c r="O474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_3</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>11</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G475" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_smoke_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_smoke_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="K475" t="n">
+        <v>474</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>5df5ad3e-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_smoke_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_smoke_202208_3.gif</t>
+        </is>
+      </c>
+      <c r="O475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_4</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>effect_smoke_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>12</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>gif</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>effectscolor</t>
+        </is>
+      </c>
+      <c r="G476" t="n">
+        <v>202208</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>effectscolor_202208</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>sticker_download/sticker_202208/effectscolor_202208/effect_smoke_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>sticker_thumbnail/sticker_202208/effectscolor_202208/effect_smoke_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="K476" t="n">
+        <v>475</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>5df5ad70-1f8f-11ed-bee6-acde48001122</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>sticker/download/effect_smoke_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>sticker/previews/effect_smoke_202208_4.gif</t>
+        </is>
+      </c>
+      <c r="O476" t="n">
         <v>1</v>
       </c>
     </row>
